--- a/Oncology.xlsx
+++ b/Oncology.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121B22AF-95E6-4FF1-9D9F-6F7E92CEC33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795A2FCB-50F8-4115-97DE-985F7AB4FCCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26460" yWindow="750" windowWidth="25080" windowHeight="19755" activeTab="2" xr2:uid="{6D622C2B-F543-4A42-9C1A-270197A32279}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6D622C2B-F543-4A42-9C1A-270197A32279}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="120">
   <si>
     <t>Breast Cancer</t>
   </si>
@@ -358,6 +358,48 @@
   </si>
   <si>
     <t>fulvestrant</t>
+  </si>
+  <si>
+    <t>Indications</t>
+  </si>
+  <si>
+    <t>Lenvima (lenvatinib)</t>
+  </si>
+  <si>
+    <t>MRK/Eisai</t>
+  </si>
+  <si>
+    <t>Gastroesophageal Adenocarcinoma (GEA)</t>
+  </si>
+  <si>
+    <t>Renal Cell Carcinoma</t>
+  </si>
+  <si>
+    <t>RCC</t>
+  </si>
+  <si>
+    <t>Herceptin (trastuzumab)</t>
+  </si>
+  <si>
+    <t>RCC, gastric cancer</t>
+  </si>
+  <si>
+    <t>Major form of gastric cancer. 90-95% of gastric cancers are adenocarcinomas. Can be HER2 mutated</t>
+  </si>
+  <si>
+    <t>5th most diagnosed, 5th largest cause of death. 969k WW diagnosed, 660k deaths.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  US 27k diagnosed, 11k deaths. 5-year OS for advanced disease is 7%.</t>
+  </si>
+  <si>
+    <t>Esophageal Cancer</t>
+  </si>
+  <si>
+    <t>11th most diagnosed, 7th leading deaths. 511k WW diagnoses, 445k deaths.</t>
+  </si>
+  <si>
+    <t>22k US diagnoses, 16k deaths. 5-year OS for advanced disease is 6%.</t>
   </si>
 </sst>
 </file>
@@ -740,13 +782,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3FD383B-FB66-48B4-812F-97E17364BFD9}">
-  <dimension ref="B2:C16"/>
+  <dimension ref="B2:C23"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -773,85 +817,121 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
-        <v>34</v>
+      <c r="C6" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>31</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>22</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C23" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" location="Melanoma!A1" display="Melanoma" xr:uid="{B71E488B-8002-4EBF-835D-D796E6FC3075}"/>
+    <hyperlink ref="B11" location="Melanoma!A1" display="Melanoma" xr:uid="{B71E488B-8002-4EBF-835D-D796E6FC3075}"/>
     <hyperlink ref="B2" location="'Breast Cancer'!A1" display="Breast Cancer" xr:uid="{450930AC-F170-4BBB-BCC6-ACADE275B308}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -860,27 +940,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F299CA0-3A50-4F1A-8C9C-35BB72BA8B9D}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>63</v>
@@ -891,8 +972,11 @@
       <c r="D2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>61</v>
       </c>
@@ -903,7 +987,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>59</v>
       </c>
@@ -913,8 +997,11 @@
       <c r="D4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>57</v>
       </c>
@@ -925,7 +1012,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>55</v>
       </c>
@@ -933,7 +1020,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>54</v>
       </c>
@@ -944,7 +1031,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>51</v>
       </c>
@@ -955,7 +1042,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>48</v>
       </c>
@@ -966,7 +1053,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>64</v>
       </c>
@@ -974,7 +1061,34 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>11</v>
       </c>
@@ -985,7 +1099,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>45</v>
       </c>
@@ -1019,11 +1133,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2815E58-2E4C-405C-91CC-EF7C342B66D9}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Oncology.xlsx
+++ b/Oncology.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795A2FCB-50F8-4115-97DE-985F7AB4FCCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACAE14F1-D867-4B9D-BD5C-DF599195D9FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6D622C2B-F543-4A42-9C1A-270197A32279}"/>
+    <workbookView xWindow="11210" yWindow="3730" windowWidth="22530" windowHeight="16580" activeTab="1" xr2:uid="{6D622C2B-F543-4A42-9C1A-270197A32279}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="130">
   <si>
     <t>Breast Cancer</t>
   </si>
@@ -400,6 +400,36 @@
   </si>
   <si>
     <t>22k US diagnoses, 16k deaths. 5-year OS for advanced disease is 6%.</t>
+  </si>
+  <si>
+    <t>BNT327/PM8002</t>
+  </si>
+  <si>
+    <t>PD-L1/VEGF</t>
+  </si>
+  <si>
+    <t>BNTX</t>
+  </si>
+  <si>
+    <t>SCLC, NSCLC</t>
+  </si>
+  <si>
+    <t>BNT325/DB-1305</t>
+  </si>
+  <si>
+    <t>TROP2 ADC</t>
+  </si>
+  <si>
+    <t>BNT323/DB-1303 (trastuzumab pamirtecan)</t>
+  </si>
+  <si>
+    <t>BNT326/YL202</t>
+  </si>
+  <si>
+    <t>HER2 ADC</t>
+  </si>
+  <si>
+    <t>HER3 ADC</t>
   </si>
 </sst>
 </file>
@@ -429,9 +459,18 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -442,9 +481,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -784,22 +824,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3FD383B-FB66-48B4-812F-97E17364BFD9}">
   <dimension ref="B2:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>39</v>
       </c>
@@ -807,7 +847,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>38</v>
       </c>
@@ -815,7 +855,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>117</v>
       </c>
@@ -823,12 +863,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>36</v>
       </c>
@@ -836,7 +876,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>109</v>
       </c>
@@ -844,27 +884,27 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>32</v>
       </c>
@@ -872,17 +912,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>29</v>
       </c>
@@ -890,22 +930,22 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>25</v>
       </c>
@@ -913,7 +953,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>23</v>
       </c>
@@ -921,7 +961,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>22</v>
       </c>
@@ -940,28 +980,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F299CA0-3A50-4F1A-8C9C-35BB72BA8B9D}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>63</v>
@@ -976,7 +1017,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>61</v>
       </c>
@@ -987,7 +1028,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>59</v>
       </c>
@@ -1001,7 +1042,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>57</v>
       </c>
@@ -1012,7 +1053,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>55</v>
       </c>
@@ -1020,7 +1061,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>54</v>
       </c>
@@ -1031,7 +1072,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>51</v>
       </c>
@@ -1042,7 +1083,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>48</v>
       </c>
@@ -1053,7 +1094,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>64</v>
       </c>
@@ -1061,7 +1102,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>107</v>
       </c>
@@ -1075,7 +1116,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>112</v>
       </c>
@@ -1083,12 +1124,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>11</v>
       </c>
@@ -1099,26 +1140,73 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>45</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>44</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>42</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>41</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" t="s">
+        <v>129</v>
+      </c>
+      <c r="D21" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1140,26 +1228,26 @@
       <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>9</v>
       </c>
@@ -1182,7 +1270,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>3</v>
       </c>
@@ -1196,22 +1284,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>93</v>
       </c>
@@ -1225,7 +1313,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>96</v>
       </c>
@@ -1239,7 +1327,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>104</v>
       </c>
@@ -1247,7 +1335,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>99</v>
       </c>
@@ -1261,7 +1349,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>11</v>
       </c>
@@ -1278,12 +1366,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>103</v>
       </c>
@@ -1302,23 +1390,23 @@
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
         <v>17</v>
@@ -1327,7 +1415,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>86</v>
       </c>
@@ -1335,7 +1423,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>50</v>
       </c>
@@ -1343,12 +1431,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>82</v>
       </c>
@@ -1356,12 +1444,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>80</v>
       </c>
@@ -1369,12 +1457,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>77</v>
       </c>
@@ -1382,7 +1470,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>47</v>
       </c>
@@ -1390,12 +1478,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>53</v>
       </c>
@@ -1403,12 +1491,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>71</v>
       </c>
@@ -1416,12 +1504,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>69</v>
       </c>
@@ -1429,12 +1517,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>60</v>
       </c>
@@ -1442,7 +1530,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>41</v>
       </c>
@@ -1461,17 +1549,17 @@
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>92</v>
       </c>
@@ -1479,12 +1567,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>90</v>
       </c>

--- a/Oncology.xlsx
+++ b/Oncology.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACAE14F1-D867-4B9D-BD5C-DF599195D9FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1996E6A2-06DE-4169-8701-1B39154C7D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11210" yWindow="3730" windowWidth="22530" windowHeight="16580" activeTab="1" xr2:uid="{6D622C2B-F543-4A42-9C1A-270197A32279}"/>
+    <workbookView xWindow="-28695" yWindow="1980" windowWidth="26610" windowHeight="13410" activeTab="2" xr2:uid="{6D622C2B-F543-4A42-9C1A-270197A32279}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="151">
   <si>
     <t>Breast Cancer</t>
   </si>
@@ -430,13 +430,76 @@
   </si>
   <si>
     <t>HER3 ADC</t>
+  </si>
+  <si>
+    <t>boserlimab</t>
+  </si>
+  <si>
+    <t>MK-0482</t>
+  </si>
+  <si>
+    <t>ILT3 mab</t>
+  </si>
+  <si>
+    <t>MK-4830</t>
+  </si>
+  <si>
+    <t>ILT4 mab</t>
+  </si>
+  <si>
+    <t>MK-7684 (vibostolimab)</t>
+  </si>
+  <si>
+    <t>TIGIT</t>
+  </si>
+  <si>
+    <t>CD27 agonist mab</t>
+  </si>
+  <si>
+    <t>MRK, Chinook</t>
+  </si>
+  <si>
+    <t>MK-4280 (favezelimab)</t>
+  </si>
+  <si>
+    <t>MK-2400 (ifinatamab deruxtecan)</t>
+  </si>
+  <si>
+    <t>B7-H3 ADC</t>
+  </si>
+  <si>
+    <t>MRK/Daiichi</t>
+  </si>
+  <si>
+    <t>Pluvicto (Lu-177 vipivotide tetraxetan)</t>
+  </si>
+  <si>
+    <t>radiolabeled PSMA</t>
+  </si>
+  <si>
+    <t>mCRPC</t>
+  </si>
+  <si>
+    <t>Piqray (alpelisib)</t>
+  </si>
+  <si>
+    <t>PI3Kalpha</t>
+  </si>
+  <si>
+    <t>aBC</t>
+  </si>
+  <si>
+    <t>Piqray</t>
+  </si>
+  <si>
+    <t>alpelisib</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -447,6 +510,11 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -481,10 +549,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -824,22 +893,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3FD383B-FB66-48B4-812F-97E17364BFD9}">
   <dimension ref="B2:C23"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>39</v>
       </c>
@@ -847,7 +914,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>38</v>
       </c>
@@ -855,7 +922,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>117</v>
       </c>
@@ -863,12 +930,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>36</v>
       </c>
@@ -876,7 +943,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>109</v>
       </c>
@@ -884,27 +951,27 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>32</v>
       </c>
@@ -912,17 +979,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>29</v>
       </c>
@@ -930,22 +997,22 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>25</v>
       </c>
@@ -953,7 +1020,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>23</v>
       </c>
@@ -961,7 +1028,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>22</v>
       </c>
@@ -980,29 +1047,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F299CA0-3A50-4F1A-8C9C-35BB72BA8B9D}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>63</v>
@@ -1017,7 +1084,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>61</v>
       </c>
@@ -1028,7 +1095,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>59</v>
       </c>
@@ -1042,7 +1109,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>57</v>
       </c>
@@ -1053,7 +1120,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>55</v>
       </c>
@@ -1061,7 +1128,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>54</v>
       </c>
@@ -1072,7 +1139,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>51</v>
       </c>
@@ -1083,7 +1150,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>48</v>
       </c>
@@ -1094,7 +1161,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>64</v>
       </c>
@@ -1102,7 +1169,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>107</v>
       </c>
@@ -1116,7 +1183,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>112</v>
       </c>
@@ -1124,89 +1191,183 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>11</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>16</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
         <v>120</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>121</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>122</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
         <v>45</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>44</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>42</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>41</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>125</v>
-      </c>
-      <c r="D19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C20" t="s">
-        <v>128</v>
       </c>
       <c r="D20" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D21" t="s">
         <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" t="s">
+        <v>132</v>
+      </c>
+      <c r="D24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>139</v>
+      </c>
+      <c r="C27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" t="s">
+        <v>141</v>
+      </c>
+      <c r="D28" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1219,35 +1380,35 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2815E58-2E4C-405C-91CC-EF7C342B66D9}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>9</v>
       </c>
@@ -1270,7 +1431,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>3</v>
       </c>
@@ -1284,22 +1445,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>93</v>
       </c>
@@ -1313,7 +1474,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>96</v>
       </c>
@@ -1327,7 +1488,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>104</v>
       </c>
@@ -1335,7 +1496,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>99</v>
       </c>
@@ -1349,30 +1510,38 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>149</v>
+      </c>
       <c r="D12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
         <v>11</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>12</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" t="s">
         <v>7</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G13" t="s">
         <v>16</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1390,23 +1559,23 @@
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
         <v>17</v>
@@ -1415,7 +1584,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>86</v>
       </c>
@@ -1423,7 +1592,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>50</v>
       </c>
@@ -1431,12 +1600,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>82</v>
       </c>
@@ -1444,12 +1613,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>80</v>
       </c>
@@ -1457,12 +1626,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>77</v>
       </c>
@@ -1470,7 +1639,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>47</v>
       </c>
@@ -1478,12 +1647,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>53</v>
       </c>
@@ -1491,12 +1660,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>71</v>
       </c>
@@ -1504,12 +1673,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>69</v>
       </c>
@@ -1517,12 +1686,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>60</v>
       </c>
@@ -1530,7 +1699,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>41</v>
       </c>
@@ -1549,17 +1718,17 @@
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>92</v>
       </c>
@@ -1567,12 +1736,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>90</v>
       </c>

--- a/Oncology.xlsx
+++ b/Oncology.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1996E6A2-06DE-4169-8701-1B39154C7D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3B86A8-0EA6-4E9E-BD69-911DECB316E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28695" yWindow="1980" windowWidth="26610" windowHeight="13410" activeTab="2" xr2:uid="{6D622C2B-F543-4A42-9C1A-270197A32279}"/>
+    <workbookView xWindow="3760" yWindow="3760" windowWidth="28800" windowHeight="15370" activeTab="1" xr2:uid="{6D622C2B-F543-4A42-9C1A-270197A32279}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="155">
   <si>
     <t>Breast Cancer</t>
   </si>
@@ -493,6 +493,18 @@
   </si>
   <si>
     <t>alpelisib</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>tiragolumab</t>
+  </si>
+  <si>
+    <t>Roche</t>
   </si>
 </sst>
 </file>
@@ -895,18 +907,18 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>39</v>
       </c>
@@ -914,7 +926,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>38</v>
       </c>
@@ -922,7 +934,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>117</v>
       </c>
@@ -930,12 +942,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>36</v>
       </c>
@@ -943,7 +955,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>109</v>
       </c>
@@ -951,27 +963,27 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>32</v>
       </c>
@@ -979,17 +991,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>29</v>
       </c>
@@ -997,22 +1009,22 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>25</v>
       </c>
@@ -1020,7 +1032,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>23</v>
       </c>
@@ -1028,7 +1040,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>22</v>
       </c>
@@ -1047,29 +1059,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F299CA0-3A50-4F1A-8C9C-35BB72BA8B9D}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>63</v>
@@ -1083,8 +1095,11 @@
       <c r="E2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>61</v>
       </c>
@@ -1095,7 +1110,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>59</v>
       </c>
@@ -1109,7 +1124,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>57</v>
       </c>
@@ -1120,7 +1135,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>55</v>
       </c>
@@ -1128,7 +1143,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>54</v>
       </c>
@@ -1139,7 +1154,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>51</v>
       </c>
@@ -1150,7 +1165,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>48</v>
       </c>
@@ -1161,7 +1176,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>64</v>
       </c>
@@ -1169,7 +1184,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>107</v>
       </c>
@@ -1183,7 +1198,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>112</v>
       </c>
@@ -1191,12 +1206,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>143</v>
       </c>
@@ -1210,7 +1225,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>146</v>
       </c>
@@ -1224,7 +1239,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>11</v>
       </c>
@@ -1235,7 +1250,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>120</v>
       </c>
@@ -1249,7 +1264,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>45</v>
       </c>
@@ -1260,7 +1275,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>42</v>
       </c>
@@ -1271,7 +1286,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>124</v>
       </c>
@@ -1282,7 +1297,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>126</v>
       </c>
@@ -1293,7 +1308,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>127</v>
       </c>
@@ -1304,7 +1319,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>130</v>
       </c>
@@ -1315,7 +1330,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>131</v>
       </c>
@@ -1326,7 +1341,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>133</v>
       </c>
@@ -1337,37 +1352,51 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C26" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="D26" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>139</v>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="D27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29" t="s">
+        <v>136</v>
+      </c>
+      <c r="D29" t="s">
+        <v>154</v>
+      </c>
+      <c r="F29" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" t="s">
+        <v>136</v>
+      </c>
+      <c r="D30" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C28" t="s">
-        <v>141</v>
-      </c>
-      <c r="D28" t="s">
-        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1382,33 +1411,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2815E58-2E4C-405C-91CC-EF7C342B66D9}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>9</v>
       </c>
@@ -1431,7 +1460,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>3</v>
       </c>
@@ -1445,22 +1474,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>93</v>
       </c>
@@ -1474,7 +1503,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>96</v>
       </c>
@@ -1488,7 +1517,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>104</v>
       </c>
@@ -1496,7 +1525,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>99</v>
       </c>
@@ -1510,7 +1539,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>149</v>
       </c>
@@ -1518,7 +1547,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>11</v>
       </c>
@@ -1535,12 +1564,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>103</v>
       </c>
@@ -1559,23 +1588,23 @@
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
         <v>17</v>
@@ -1584,7 +1613,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>86</v>
       </c>
@@ -1592,7 +1621,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>50</v>
       </c>
@@ -1600,12 +1629,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>82</v>
       </c>
@@ -1613,12 +1642,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>80</v>
       </c>
@@ -1626,12 +1655,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>77</v>
       </c>
@@ -1639,7 +1668,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>47</v>
       </c>
@@ -1647,12 +1676,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>53</v>
       </c>
@@ -1660,12 +1689,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>71</v>
       </c>
@@ -1673,12 +1702,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>69</v>
       </c>
@@ -1686,12 +1715,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>60</v>
       </c>
@@ -1699,7 +1728,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>41</v>
       </c>
@@ -1718,17 +1747,17 @@
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>92</v>
       </c>
@@ -1736,12 +1765,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>90</v>
       </c>

--- a/Oncology.xlsx
+++ b/Oncology.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3B86A8-0EA6-4E9E-BD69-911DECB316E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05349B1A-E5F4-4D2E-888A-24A000DBFC54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3760" yWindow="3760" windowWidth="28800" windowHeight="15370" activeTab="1" xr2:uid="{6D622C2B-F543-4A42-9C1A-270197A32279}"/>
+    <workbookView xWindow="-48585" yWindow="1305" windowWidth="22410" windowHeight="14220" activeTab="1" xr2:uid="{6D622C2B-F543-4A42-9C1A-270197A32279}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -39,8 +39,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={4ED2E3BB-81D0-4C97-842A-E0646AB38CC5}</author>
+  </authors>
+  <commentList>
+    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{4ED2E3BB-81D0-4C97-842A-E0646AB38CC5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    125554 filed as well</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="201">
   <si>
     <t>Breast Cancer</t>
   </si>
@@ -495,9 +513,6 @@
     <t>alpelisib</t>
   </si>
   <si>
-    <t>Phase</t>
-  </si>
-  <si>
     <t>III</t>
   </si>
   <si>
@@ -505,13 +520,154 @@
   </si>
   <si>
     <t>Roche</t>
+  </si>
+  <si>
+    <t>vepdegestrant</t>
+  </si>
+  <si>
+    <t>ARVN/PFE</t>
+  </si>
+  <si>
+    <t>SERD PROTAC</t>
+  </si>
+  <si>
+    <t>camizestrant</t>
+  </si>
+  <si>
+    <t>talazoparib</t>
+  </si>
+  <si>
+    <t>trastuzumab deruxtecan</t>
+  </si>
+  <si>
+    <t>trastuzumab emtansine</t>
+  </si>
+  <si>
+    <t>datopotamab deruxtecan</t>
+  </si>
+  <si>
+    <t>sacituzumab govitecan</t>
+  </si>
+  <si>
+    <t>bevacizumab</t>
+  </si>
+  <si>
+    <t>palbociclib</t>
+  </si>
+  <si>
+    <t>ribociclib</t>
+  </si>
+  <si>
+    <t>Kisqali</t>
+  </si>
+  <si>
+    <t>neratinib</t>
+  </si>
+  <si>
+    <t>tamoxifen</t>
+  </si>
+  <si>
+    <t>tucatinib</t>
+  </si>
+  <si>
+    <t>SAR439859</t>
+  </si>
+  <si>
+    <t>amcenestrant</t>
+  </si>
+  <si>
+    <t>SNY</t>
+  </si>
+  <si>
+    <t>capecitabine</t>
+  </si>
+  <si>
+    <t>trastuzumab</t>
+  </si>
+  <si>
+    <t>Daiichi/AZN</t>
+  </si>
+  <si>
+    <t>Perjeta</t>
+  </si>
+  <si>
+    <t>pertuzumab</t>
+  </si>
+  <si>
+    <t>Imfinzi (durvalumab)</t>
+  </si>
+  <si>
+    <t>Tecentriq (atezolizumab)</t>
+  </si>
+  <si>
+    <t>PD-L1</t>
+  </si>
+  <si>
+    <t>gemcitabine</t>
+  </si>
+  <si>
+    <t>paclitaxel</t>
+  </si>
+  <si>
+    <t>nab-paclitaxel</t>
+  </si>
+  <si>
+    <t>docetaxel</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>BLA/NDA</t>
+  </si>
+  <si>
+    <t>REGN/SNY</t>
+  </si>
+  <si>
+    <t>Libtayo (cemiplimab)</t>
+  </si>
+  <si>
+    <t>GSK</t>
+  </si>
+  <si>
+    <t>Jemperli (dostarlimab)</t>
+  </si>
+  <si>
+    <t>Uloxcyt (cosibelimab)</t>
+  </si>
+  <si>
+    <t>CKPT</t>
+  </si>
+  <si>
+    <t>JNJ</t>
+  </si>
+  <si>
+    <t>cetrelimab</t>
+  </si>
+  <si>
+    <t>ABBV</t>
+  </si>
+  <si>
+    <t>tislelizumab</t>
+  </si>
+  <si>
+    <t>budigalimab</t>
+  </si>
+  <si>
+    <t>Truqap (capivasertib)</t>
+  </si>
+  <si>
+    <t>AKT</t>
+  </si>
+  <si>
+    <t>HR+ HER2- mBC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -528,6 +684,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -561,11 +723,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -584,6 +748,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Martin Shkreli" id="{D6D5008E-5567-4595-8F1F-B5F92E723F70}" userId="9ffda80931a57275" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -901,24 +1071,32 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="G5" dT="2025-02-10T15:19:20.68" personId="{D6D5008E-5567-4595-8F1F-B5F92E723F70}" id="{4ED2E3BB-81D0-4C97-842A-E0646AB38CC5}">
+    <text>125554 filed as well</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3FD383B-FB66-48B4-812F-97E17364BFD9}">
   <dimension ref="B2:C23"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>39</v>
       </c>
@@ -926,7 +1104,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>38</v>
       </c>
@@ -934,7 +1112,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>117</v>
       </c>
@@ -942,12 +1120,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>36</v>
       </c>
@@ -955,7 +1133,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>109</v>
       </c>
@@ -963,27 +1141,27 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>32</v>
       </c>
@@ -991,17 +1169,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>29</v>
       </c>
@@ -1009,22 +1187,22 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>25</v>
       </c>
@@ -1032,7 +1210,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>23</v>
       </c>
@@ -1040,7 +1218,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>22</v>
       </c>
@@ -1058,30 +1236,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F299CA0-3A50-4F1A-8C9C-35BB72BA8B9D}">
-  <dimension ref="A1:F30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F299CA0-3A50-4F1A-8C9C-35BB72BA8B9D}">
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>63</v>
@@ -1096,10 +1276,13 @@
         <v>106</v>
       </c>
       <c r="F2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+      <c r="G2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>61</v>
       </c>
@@ -1110,7 +1293,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>59</v>
       </c>
@@ -1123,8 +1306,14 @@
       <c r="E4" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="5">
+        <v>41886</v>
+      </c>
+      <c r="G4">
+        <v>125514</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>57</v>
       </c>
@@ -1134,269 +1323,418 @@
       <c r="D5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="5">
+        <v>41995</v>
+      </c>
+      <c r="G5">
+        <v>125527</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>55</v>
+        <v>178</v>
+      </c>
+      <c r="C6" t="s">
+        <v>180</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="F6" s="5">
+        <v>42856</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>54</v>
+        <v>179</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>180</v>
       </c>
       <c r="D7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="5">
+        <v>42508</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="F8" s="5">
+        <v>42817</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>48</v>
+        <v>188</v>
       </c>
       <c r="C9" t="s">
         <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+      <c r="F9" s="5">
+        <v>43371</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>189</v>
+      </c>
+      <c r="F10" s="5">
+        <v>44399</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D11" t="s">
+        <v>192</v>
+      </c>
+      <c r="F11" s="5">
+        <v>45639</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" t="s">
+        <v>200</v>
+      </c>
+      <c r="F15" s="5">
+        <v>45246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>64</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
         <v>107</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C21" t="s">
         <v>60</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D21" t="s">
         <v>108</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>112</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C22" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
         <v>143</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C24" t="s">
         <v>144</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D24" t="s">
         <v>98</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E24" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>146</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C25" t="s">
         <v>147</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D25" t="s">
         <v>98</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E25" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
         <v>11</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C26" t="s">
         <v>16</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D26" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
         <v>120</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C27" t="s">
         <v>121</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D27" t="s">
         <v>122</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E27" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>45</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C28" t="s">
         <v>44</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>42</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C29" t="s">
         <v>41</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D29" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C30" t="s">
         <v>125</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D30" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C31" t="s">
         <v>128</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D31" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C32" t="s">
         <v>129</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D32" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
         <v>130</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C33" t="s">
         <v>137</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D33" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
         <v>131</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C34" t="s">
         <v>132</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D34" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>133</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C35" t="s">
         <v>134</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D35" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
         <v>139</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C36" t="s">
         <v>81</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D36" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C37" t="s">
         <v>141</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D37" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>152</v>
+      </c>
+      <c r="C39" t="s">
+        <v>136</v>
+      </c>
+      <c r="D39" t="s">
         <v>153</v>
       </c>
-      <c r="C29" t="s">
+      <c r="F39" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>135</v>
+      </c>
+      <c r="C40" t="s">
         <v>136</v>
       </c>
-      <c r="D29" t="s">
-        <v>154</v>
-      </c>
-      <c r="F29" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>135</v>
-      </c>
-      <c r="C30" t="s">
-        <v>136</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="D40" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>194</v>
+      </c>
+      <c r="C41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>196</v>
+      </c>
+      <c r="C42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>197</v>
+      </c>
+      <c r="C43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -1404,40 +1742,41 @@
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{D32D8245-5EED-461F-9E30-88842595EA82}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2815E58-2E4C-405C-91CC-EF7C342B66D9}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>9</v>
       </c>
@@ -1460,7 +1799,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>3</v>
       </c>
@@ -1474,104 +1813,232 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" t="s">
+        <v>177</v>
+      </c>
+      <c r="F8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
         <v>93</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>64</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>94</v>
-      </c>
-      <c r="G8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F9" t="s">
-        <v>98</v>
       </c>
       <c r="G9" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
         <v>104</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
         <v>99</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>100</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F12" t="s">
         <v>101</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G12" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
         <v>149</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D14" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
         <v>11</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E15" t="s">
         <v>12</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F15" t="s">
         <v>7</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G15" t="s">
         <v>16</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" t="s">
+        <v>164</v>
+      </c>
+      <c r="F18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>166</v>
+      </c>
+      <c r="D19" t="s">
+        <v>165</v>
+      </c>
+      <c r="F19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+      <c r="D26" t="s">
+        <v>154</v>
+      </c>
+      <c r="E26" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C31" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D31" t="s">
+        <v>171</v>
+      </c>
+      <c r="F31" t="s">
+        <v>172</v>
+      </c>
+      <c r="G31" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1588,23 +2055,23 @@
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
         <v>17</v>
@@ -1613,7 +2080,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>86</v>
       </c>
@@ -1621,7 +2088,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>50</v>
       </c>
@@ -1629,12 +2096,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>82</v>
       </c>
@@ -1642,12 +2109,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>80</v>
       </c>
@@ -1655,12 +2122,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>77</v>
       </c>
@@ -1668,7 +2135,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>47</v>
       </c>
@@ -1676,12 +2143,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>53</v>
       </c>
@@ -1689,12 +2156,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>71</v>
       </c>
@@ -1702,12 +2169,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>69</v>
       </c>
@@ -1715,12 +2182,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>60</v>
       </c>
@@ -1728,7 +2195,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>41</v>
       </c>
@@ -1747,17 +2214,17 @@
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>92</v>
       </c>
@@ -1765,12 +2232,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>90</v>
       </c>
